--- a/ひな形.xlsx
+++ b/ひな形.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terapoc15\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terapoc15\Desktop\NakaDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7E39368-ECF1-4EDD-9730-C5EB0803C571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795B55DB-4F25-4398-ACEC-ADA7235B3AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{92C23CC2-6633-4774-A241-2954212A939A}"/>
+    <workbookView xWindow="-27630" yWindow="1305" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{92C23CC2-6633-4774-A241-2954212A939A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -22,10 +23,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,7 +386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861011FA-69A4-4F4A-9308-511842FDA37A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -398,4 +395,19 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285FC8C6-00C8-4D5C-BED4-239E4AB1C9FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>